--- a/xlsx/苏联解体_intext.xlsx
+++ b/xlsx/苏联解体_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1613">
   <si>
     <t>苏联解体</t>
   </si>
@@ -29,7 +29,7 @@
     <t>俄罗斯历史</t>
   </si>
   <si>
-    <t>政策_政策_美國_苏联解体</t>
+    <t>体育运动_体育运动_伊朗_苏联解体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%96%AF%E4%BA%BA</t>
@@ -3432,6 +3432,12 @@
   </si>
   <si>
     <t>黎巴嫩內戰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9%E5%BC%80%E6%94%BE</t>
+  </si>
+  <si>
+    <t>改革开放</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E8%B6%8A%E6%88%B0%E7%88%AD</t>
@@ -5196,7 +5202,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I870"/>
+  <dimension ref="A1:I871"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23491,7 +23497,7 @@
         <v>1174</v>
       </c>
       <c r="G631" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H631" t="s">
         <v>4</v>
@@ -23520,7 +23526,7 @@
         <v>1176</v>
       </c>
       <c r="G632" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H632" t="s">
         <v>4</v>
@@ -23665,7 +23671,7 @@
         <v>1186</v>
       </c>
       <c r="G637" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H637" t="s">
         <v>4</v>
@@ -23694,7 +23700,7 @@
         <v>1188</v>
       </c>
       <c r="G638" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H638" t="s">
         <v>4</v>
@@ -23746,10 +23752,10 @@
         <v>639</v>
       </c>
       <c r="E640" t="s">
-        <v>979</v>
+        <v>1191</v>
       </c>
       <c r="F640" t="s">
-        <v>980</v>
+        <v>1192</v>
       </c>
       <c r="G640" t="n">
         <v>1</v>
@@ -23775,10 +23781,10 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>1191</v>
+        <v>979</v>
       </c>
       <c r="F641" t="s">
-        <v>1192</v>
+        <v>980</v>
       </c>
       <c r="G641" t="n">
         <v>1</v>
@@ -23891,13 +23897,13 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>735</v>
+        <v>1199</v>
       </c>
       <c r="F645" t="s">
-        <v>736</v>
+        <v>1200</v>
       </c>
       <c r="G645" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H645" t="s">
         <v>4</v>
@@ -23920,13 +23926,13 @@
         <v>645</v>
       </c>
       <c r="E646" t="s">
-        <v>1199</v>
+        <v>735</v>
       </c>
       <c r="F646" t="s">
-        <v>1200</v>
+        <v>736</v>
       </c>
       <c r="G646" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H646" t="s">
         <v>4</v>
@@ -23955,7 +23961,7 @@
         <v>1202</v>
       </c>
       <c r="G647" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H647" t="s">
         <v>4</v>
@@ -23978,13 +23984,13 @@
         <v>647</v>
       </c>
       <c r="E648" t="s">
-        <v>743</v>
+        <v>1203</v>
       </c>
       <c r="F648" t="s">
-        <v>744</v>
+        <v>1204</v>
       </c>
       <c r="G648" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H648" t="s">
         <v>4</v>
@@ -24007,10 +24013,10 @@
         <v>648</v>
       </c>
       <c r="E649" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F649" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G649" t="n">
         <v>1</v>
@@ -24036,13 +24042,13 @@
         <v>649</v>
       </c>
       <c r="E650" t="s">
-        <v>1203</v>
+        <v>745</v>
       </c>
       <c r="F650" t="s">
-        <v>1204</v>
+        <v>746</v>
       </c>
       <c r="G650" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H650" t="s">
         <v>4</v>
@@ -24065,13 +24071,13 @@
         <v>650</v>
       </c>
       <c r="E651" t="s">
-        <v>513</v>
+        <v>1205</v>
       </c>
       <c r="F651" t="s">
-        <v>514</v>
+        <v>1206</v>
       </c>
       <c r="G651" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H651" t="s">
         <v>4</v>
@@ -24094,10 +24100,10 @@
         <v>651</v>
       </c>
       <c r="E652" t="s">
-        <v>1205</v>
+        <v>513</v>
       </c>
       <c r="F652" t="s">
-        <v>1206</v>
+        <v>514</v>
       </c>
       <c r="G652" t="n">
         <v>1</v>
@@ -24303,7 +24309,7 @@
         <v>1220</v>
       </c>
       <c r="G659" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H659" t="s">
         <v>4</v>
@@ -24332,7 +24338,7 @@
         <v>1222</v>
       </c>
       <c r="G660" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H660" t="s">
         <v>4</v>
@@ -24413,13 +24419,13 @@
         <v>662</v>
       </c>
       <c r="E663" t="s">
-        <v>373</v>
+        <v>1227</v>
       </c>
       <c r="F663" t="s">
-        <v>374</v>
+        <v>1228</v>
       </c>
       <c r="G663" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H663" t="s">
         <v>4</v>
@@ -24442,13 +24448,13 @@
         <v>663</v>
       </c>
       <c r="E664" t="s">
-        <v>1227</v>
+        <v>373</v>
       </c>
       <c r="F664" t="s">
-        <v>1228</v>
+        <v>374</v>
       </c>
       <c r="G664" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H664" t="s">
         <v>4</v>
@@ -24732,10 +24738,10 @@
         <v>673</v>
       </c>
       <c r="E674" t="s">
-        <v>901</v>
+        <v>1247</v>
       </c>
       <c r="F674" t="s">
-        <v>902</v>
+        <v>1248</v>
       </c>
       <c r="G674" t="n">
         <v>1</v>
@@ -24761,10 +24767,10 @@
         <v>674</v>
       </c>
       <c r="E675" t="s">
-        <v>1247</v>
+        <v>901</v>
       </c>
       <c r="F675" t="s">
-        <v>1248</v>
+        <v>902</v>
       </c>
       <c r="G675" t="n">
         <v>1</v>
@@ -25631,10 +25637,10 @@
         <v>704</v>
       </c>
       <c r="E705" t="s">
-        <v>925</v>
+        <v>1307</v>
       </c>
       <c r="F705" t="s">
-        <v>926</v>
+        <v>1308</v>
       </c>
       <c r="G705" t="n">
         <v>1</v>
@@ -25660,10 +25666,10 @@
         <v>705</v>
       </c>
       <c r="E706" t="s">
-        <v>1307</v>
+        <v>925</v>
       </c>
       <c r="F706" t="s">
-        <v>1308</v>
+        <v>926</v>
       </c>
       <c r="G706" t="n">
         <v>1</v>
@@ -25811,7 +25817,7 @@
         <v>1318</v>
       </c>
       <c r="G711" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H711" t="s">
         <v>4</v>
@@ -25840,7 +25846,7 @@
         <v>1320</v>
       </c>
       <c r="G712" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H712" t="s">
         <v>4</v>
@@ -26130,7 +26136,7 @@
         <v>1340</v>
       </c>
       <c r="G722" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H722" t="s">
         <v>4</v>
@@ -26159,7 +26165,7 @@
         <v>1342</v>
       </c>
       <c r="G723" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H723" t="s">
         <v>4</v>
@@ -26385,10 +26391,10 @@
         <v>730</v>
       </c>
       <c r="E731" t="s">
-        <v>245</v>
+        <v>1357</v>
       </c>
       <c r="F731" t="s">
-        <v>246</v>
+        <v>1358</v>
       </c>
       <c r="G731" t="n">
         <v>1</v>
@@ -26414,13 +26420,13 @@
         <v>731</v>
       </c>
       <c r="E732" t="s">
-        <v>1357</v>
+        <v>245</v>
       </c>
       <c r="F732" t="s">
-        <v>1358</v>
+        <v>246</v>
       </c>
       <c r="G732" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H732" t="s">
         <v>4</v>
@@ -26449,7 +26455,7 @@
         <v>1360</v>
       </c>
       <c r="G733" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H733" t="s">
         <v>4</v>
@@ -26820,10 +26826,10 @@
         <v>745</v>
       </c>
       <c r="E746" t="s">
-        <v>1253</v>
+        <v>1385</v>
       </c>
       <c r="F746" t="s">
-        <v>1254</v>
+        <v>1386</v>
       </c>
       <c r="G746" t="n">
         <v>1</v>
@@ -26849,10 +26855,10 @@
         <v>746</v>
       </c>
       <c r="E747" t="s">
-        <v>1385</v>
+        <v>1255</v>
       </c>
       <c r="F747" t="s">
-        <v>1386</v>
+        <v>1256</v>
       </c>
       <c r="G747" t="n">
         <v>1</v>
@@ -26936,10 +26942,10 @@
         <v>749</v>
       </c>
       <c r="E750" t="s">
-        <v>485</v>
+        <v>1391</v>
       </c>
       <c r="F750" t="s">
-        <v>486</v>
+        <v>1392</v>
       </c>
       <c r="G750" t="n">
         <v>1</v>
@@ -26965,10 +26971,10 @@
         <v>750</v>
       </c>
       <c r="E751" t="s">
-        <v>1391</v>
+        <v>485</v>
       </c>
       <c r="F751" t="s">
-        <v>1392</v>
+        <v>486</v>
       </c>
       <c r="G751" t="n">
         <v>1</v>
@@ -26994,10 +27000,10 @@
         <v>751</v>
       </c>
       <c r="E752" t="s">
-        <v>741</v>
+        <v>1393</v>
       </c>
       <c r="F752" t="s">
-        <v>742</v>
+        <v>1394</v>
       </c>
       <c r="G752" t="n">
         <v>1</v>
@@ -27023,10 +27029,10 @@
         <v>752</v>
       </c>
       <c r="E753" t="s">
-        <v>1203</v>
+        <v>741</v>
       </c>
       <c r="F753" t="s">
-        <v>1204</v>
+        <v>742</v>
       </c>
       <c r="G753" t="n">
         <v>1</v>
@@ -27052,10 +27058,10 @@
         <v>753</v>
       </c>
       <c r="E754" t="s">
-        <v>1393</v>
+        <v>1205</v>
       </c>
       <c r="F754" t="s">
-        <v>1394</v>
+        <v>1206</v>
       </c>
       <c r="G754" t="n">
         <v>1</v>
@@ -27110,13 +27116,13 @@
         <v>755</v>
       </c>
       <c r="E756" t="s">
-        <v>511</v>
+        <v>1397</v>
       </c>
       <c r="F756" t="s">
-        <v>512</v>
+        <v>1398</v>
       </c>
       <c r="G756" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H756" t="s">
         <v>4</v>
@@ -27139,13 +27145,13 @@
         <v>756</v>
       </c>
       <c r="E757" t="s">
-        <v>1397</v>
+        <v>511</v>
       </c>
       <c r="F757" t="s">
-        <v>1398</v>
+        <v>512</v>
       </c>
       <c r="G757" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H757" t="s">
         <v>4</v>
@@ -27174,7 +27180,7 @@
         <v>1400</v>
       </c>
       <c r="G758" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H758" t="s">
         <v>4</v>
@@ -27203,7 +27209,7 @@
         <v>1402</v>
       </c>
       <c r="G759" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H759" t="s">
         <v>4</v>
@@ -27232,7 +27238,7 @@
         <v>1404</v>
       </c>
       <c r="G760" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H760" t="s">
         <v>4</v>
@@ -27255,13 +27261,13 @@
         <v>760</v>
       </c>
       <c r="E761" t="s">
-        <v>137</v>
+        <v>1405</v>
       </c>
       <c r="F761" t="s">
-        <v>138</v>
+        <v>1406</v>
       </c>
       <c r="G761" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H761" t="s">
         <v>4</v>
@@ -27284,13 +27290,13 @@
         <v>761</v>
       </c>
       <c r="E762" t="s">
-        <v>1405</v>
+        <v>137</v>
       </c>
       <c r="F762" t="s">
-        <v>1406</v>
+        <v>138</v>
       </c>
       <c r="G762" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H762" t="s">
         <v>4</v>
@@ -27319,7 +27325,7 @@
         <v>1408</v>
       </c>
       <c r="G763" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H763" t="s">
         <v>4</v>
@@ -27348,7 +27354,7 @@
         <v>1410</v>
       </c>
       <c r="G764" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H764" t="s">
         <v>4</v>
@@ -27377,7 +27383,7 @@
         <v>1412</v>
       </c>
       <c r="G765" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H765" t="s">
         <v>4</v>
@@ -27435,7 +27441,7 @@
         <v>1416</v>
       </c>
       <c r="G767" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H767" t="s">
         <v>4</v>
@@ -27464,7 +27470,7 @@
         <v>1418</v>
       </c>
       <c r="G768" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H768" t="s">
         <v>4</v>
@@ -27493,7 +27499,7 @@
         <v>1420</v>
       </c>
       <c r="G769" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H769" t="s">
         <v>4</v>
@@ -27522,7 +27528,7 @@
         <v>1422</v>
       </c>
       <c r="G770" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H770" t="s">
         <v>4</v>
@@ -27574,13 +27580,13 @@
         <v>771</v>
       </c>
       <c r="E772" t="s">
-        <v>1205</v>
+        <v>1425</v>
       </c>
       <c r="F772" t="s">
-        <v>1206</v>
+        <v>1426</v>
       </c>
       <c r="G772" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H772" t="s">
         <v>4</v>
@@ -27603,13 +27609,13 @@
         <v>772</v>
       </c>
       <c r="E773" t="s">
-        <v>1425</v>
+        <v>1207</v>
       </c>
       <c r="F773" t="s">
-        <v>1426</v>
+        <v>1208</v>
       </c>
       <c r="G773" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H773" t="s">
         <v>4</v>
@@ -27638,7 +27644,7 @@
         <v>1428</v>
       </c>
       <c r="G774" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H774" t="s">
         <v>4</v>
@@ -27748,10 +27754,10 @@
         <v>777</v>
       </c>
       <c r="E778" t="s">
-        <v>505</v>
+        <v>1435</v>
       </c>
       <c r="F778" t="s">
-        <v>506</v>
+        <v>1436</v>
       </c>
       <c r="G778" t="n">
         <v>1</v>
@@ -27777,10 +27783,10 @@
         <v>778</v>
       </c>
       <c r="E779" t="s">
-        <v>1435</v>
+        <v>505</v>
       </c>
       <c r="F779" t="s">
-        <v>1436</v>
+        <v>506</v>
       </c>
       <c r="G779" t="n">
         <v>1</v>
@@ -27980,10 +27986,10 @@
         <v>785</v>
       </c>
       <c r="E786" t="s">
-        <v>515</v>
+        <v>1449</v>
       </c>
       <c r="F786" t="s">
-        <v>516</v>
+        <v>1450</v>
       </c>
       <c r="G786" t="n">
         <v>1</v>
@@ -28009,10 +28015,10 @@
         <v>786</v>
       </c>
       <c r="E787" t="s">
-        <v>1449</v>
+        <v>515</v>
       </c>
       <c r="F787" t="s">
-        <v>1450</v>
+        <v>516</v>
       </c>
       <c r="G787" t="n">
         <v>1</v>
@@ -28044,7 +28050,7 @@
         <v>1452</v>
       </c>
       <c r="G788" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H788" t="s">
         <v>4</v>
@@ -28073,7 +28079,7 @@
         <v>1454</v>
       </c>
       <c r="G789" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H789" t="s">
         <v>4</v>
@@ -28154,13 +28160,13 @@
         <v>791</v>
       </c>
       <c r="E792" t="s">
-        <v>429</v>
+        <v>1459</v>
       </c>
       <c r="F792" t="s">
-        <v>430</v>
+        <v>1460</v>
       </c>
       <c r="G792" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H792" t="s">
         <v>4</v>
@@ -28183,13 +28189,13 @@
         <v>792</v>
       </c>
       <c r="E793" t="s">
-        <v>1459</v>
+        <v>429</v>
       </c>
       <c r="F793" t="s">
-        <v>1460</v>
+        <v>430</v>
       </c>
       <c r="G793" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H793" t="s">
         <v>4</v>
@@ -28247,7 +28253,7 @@
         <v>1464</v>
       </c>
       <c r="G795" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H795" t="s">
         <v>4</v>
@@ -28276,7 +28282,7 @@
         <v>1466</v>
       </c>
       <c r="G796" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H796" t="s">
         <v>4</v>
@@ -28363,7 +28369,7 @@
         <v>1472</v>
       </c>
       <c r="G799" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H799" t="s">
         <v>4</v>
@@ -28392,7 +28398,7 @@
         <v>1474</v>
       </c>
       <c r="G800" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H800" t="s">
         <v>4</v>
@@ -28479,7 +28485,7 @@
         <v>1480</v>
       </c>
       <c r="G803" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H803" t="s">
         <v>4</v>
@@ -28508,7 +28514,7 @@
         <v>1482</v>
       </c>
       <c r="G804" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H804" t="s">
         <v>4</v>
@@ -28537,7 +28543,7 @@
         <v>1484</v>
       </c>
       <c r="G805" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H805" t="s">
         <v>4</v>
@@ -28566,7 +28572,7 @@
         <v>1486</v>
       </c>
       <c r="G806" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H806" t="s">
         <v>4</v>
@@ -28682,7 +28688,7 @@
         <v>1494</v>
       </c>
       <c r="G810" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H810" t="s">
         <v>4</v>
@@ -28711,7 +28717,7 @@
         <v>1496</v>
       </c>
       <c r="G811" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H811" t="s">
         <v>4</v>
@@ -28740,7 +28746,7 @@
         <v>1498</v>
       </c>
       <c r="G812" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H812" t="s">
         <v>4</v>
@@ -28769,7 +28775,7 @@
         <v>1500</v>
       </c>
       <c r="G813" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H813" t="s">
         <v>4</v>
@@ -28798,7 +28804,7 @@
         <v>1502</v>
       </c>
       <c r="G814" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H814" t="s">
         <v>4</v>
@@ -28827,7 +28833,7 @@
         <v>1504</v>
       </c>
       <c r="G815" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H815" t="s">
         <v>4</v>
@@ -28914,7 +28920,7 @@
         <v>1510</v>
       </c>
       <c r="G818" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H818" t="s">
         <v>4</v>
@@ -28995,13 +29001,13 @@
         <v>820</v>
       </c>
       <c r="E821" t="s">
-        <v>273</v>
+        <v>1515</v>
       </c>
       <c r="F821" t="s">
-        <v>274</v>
+        <v>1516</v>
       </c>
       <c r="G821" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H821" t="s">
         <v>4</v>
@@ -29024,10 +29030,10 @@
         <v>821</v>
       </c>
       <c r="E822" t="s">
-        <v>1515</v>
+        <v>273</v>
       </c>
       <c r="F822" t="s">
-        <v>1516</v>
+        <v>274</v>
       </c>
       <c r="G822" t="n">
         <v>1</v>
@@ -29088,7 +29094,7 @@
         <v>1520</v>
       </c>
       <c r="G824" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H824" t="s">
         <v>4</v>
@@ -29117,7 +29123,7 @@
         <v>1522</v>
       </c>
       <c r="G825" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H825" t="s">
         <v>4</v>
@@ -29923,10 +29929,10 @@
         <v>852</v>
       </c>
       <c r="E853" t="s">
-        <v>1173</v>
+        <v>1577</v>
       </c>
       <c r="F853" t="s">
-        <v>1174</v>
+        <v>1578</v>
       </c>
       <c r="G853" t="n">
         <v>1</v>
@@ -29952,10 +29958,10 @@
         <v>853</v>
       </c>
       <c r="E854" t="s">
-        <v>1577</v>
+        <v>1175</v>
       </c>
       <c r="F854" t="s">
-        <v>1578</v>
+        <v>1176</v>
       </c>
       <c r="G854" t="n">
         <v>1</v>
@@ -30219,7 +30225,7 @@
         <v>1596</v>
       </c>
       <c r="G863" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H863" t="s">
         <v>4</v>
@@ -30248,7 +30254,7 @@
         <v>1598</v>
       </c>
       <c r="G864" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H864" t="s">
         <v>4</v>
@@ -30428,6 +30434,35 @@
         <v>4</v>
       </c>
       <c r="I870" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="871" spans="1:9">
+      <c r="A871" s="1" t="n">
+        <v>869</v>
+      </c>
+      <c r="B871" t="s">
+        <v>0</v>
+      </c>
+      <c r="C871" t="s">
+        <v>1</v>
+      </c>
+      <c r="D871" t="n">
+        <v>870</v>
+      </c>
+      <c r="E871" t="s">
+        <v>1611</v>
+      </c>
+      <c r="F871" t="s">
+        <v>1612</v>
+      </c>
+      <c r="G871" t="n">
+        <v>1</v>
+      </c>
+      <c r="H871" t="s">
+        <v>4</v>
+      </c>
+      <c r="I871" t="n">
         <v>3</v>
       </c>
     </row>
